--- a/src/test/resources/sample/Excel/receivedTranslations.xlsx
+++ b/src/test/resources/sample/Excel/receivedTranslations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t xml:space="preserve">Key</t>
   </si>
@@ -110,6 +110,30 @@
   </si>
   <si>
     <t xml:space="preserve">This is Welsh text 6 Amended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ggg.aaa.bbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Welsh text 9 Amended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ggg.aaa.ccc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ggg.aaa.eee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Welsh text 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ggg.aaa.fff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 18 Amended</t>
   </si>
 </sst>
 </file>
@@ -253,7 +277,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
@@ -261,10 +285,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.5627530364372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.336032388664"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1093117408907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.4777327935223"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.8218623481781"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.2186234817814"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -387,6 +411,38 @@
         <v>29</v>
       </c>
       <c r="D12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="true" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/test/resources/sample/Excel/receivedTranslations.xlsx
+++ b/src/test/resources/sample/Excel/receivedTranslations.xlsx
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
-  <si>
-    <t xml:space="preserve">Key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welsh</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t xml:space="preserve">aaa.bbb.ccc</t>
   </si>
@@ -52,6 +43,48 @@
     <t xml:space="preserve">This is english text 3</t>
   </si>
   <si>
+    <t xml:space="preserve">aaa.eee.fff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Welsh text 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaa.fff.ggg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaa.ggg.hhh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 6 Amended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Welsh text 3 Amended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaa.hhh.iii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaa.iii.jjj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ccc.aaa.bbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Welsh text 6 Amended</t>
+  </si>
+  <si>
     <t xml:space="preserve">ddd.aaa.bb</t>
   </si>
   <si>
@@ -61,30 +94,6 @@
     <t xml:space="preserve">This is Welsh text 7 with circumflex ystâd</t>
   </si>
   <si>
-    <t xml:space="preserve">aaa.eee.fff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is Welsh text 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaa.fff.ggg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaa.ggg.hhh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 6 Amended</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is Welsh text 3 Amended</t>
-  </si>
-  <si>
     <t xml:space="preserve">ddd.bbb.ccc</t>
   </si>
   <si>
@@ -92,24 +101,6 @@
   </si>
   <si>
     <t xml:space="preserve">This is Welsh text 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaa.hhh.iii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaa.iii.jjj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ccc.aaa.bbb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is Welsh text 6 Amended</t>
   </si>
   <si>
     <t xml:space="preserve">ggg.aaa.bbb</t>
@@ -143,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -165,13 +156,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -224,16 +208,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -262,12 +242,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:C47" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:C47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:C46" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:C46"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Key"/>
-    <tableColumn id="2" name="English"/>
-    <tableColumn id="3" name="Welsh"/>
+    <tableColumn id="1" name="aaa.bbb.ccc"/>
+    <tableColumn id="2" name="This is english text 1"/>
+    <tableColumn id="3" name=""/>
   </tableColumns>
 </table>
 </file>
@@ -277,55 +257,56 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1093117408907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.4777327935223"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.8218623481781"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.2186234817814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.6477732793522"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.0728744939271"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -336,114 +317,105 @@
       <c r="B5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="B12" s="0"/>
+      <c r="C12" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="D12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="0" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="C14" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="true" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
